--- a/Entries.xlsx
+++ b/Entries.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helmut\AppData\Roaming\MetaQuotes\Terminal\870072DB5DBAB61841BAE146AFAAFB8A\MQL5\Experts\Winner\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67346A26-D6A3-4C71-9DA5-EEA4B5B79BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-22212" yWindow="60" windowWidth="20556" windowHeight="12324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,91 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>Entry</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>alle M3 3er im H1; auch TB</t>
+  </si>
+  <si>
+    <t>Order Konrrektur</t>
+  </si>
+  <si>
+    <t>H1Kont</t>
+  </si>
+  <si>
+    <t>init M3 3er</t>
+  </si>
+  <si>
+    <t>TBvEZ</t>
+  </si>
+  <si>
+    <t>M3 TB nach tH hat DT</t>
+  </si>
+  <si>
+    <t>H1Tang</t>
+  </si>
+  <si>
+    <t>H3Tang</t>
+  </si>
+  <si>
+    <t>Voraussetzungen? - M3 3er lfd Move</t>
+  </si>
+  <si>
+    <t>Voraussetzungen? - M3 3er alte Flanke</t>
+  </si>
+  <si>
+    <t>H1Break</t>
+  </si>
+  <si>
+    <t>TB vor ang M3 3er</t>
+  </si>
+  <si>
+    <t>Fake</t>
+  </si>
+  <si>
+    <t>&gt; 10 punkte</t>
+  </si>
+  <si>
+    <t>Peek-Ziel</t>
+  </si>
+  <si>
+    <t>H1kont - der ltz M3LvL gilt?</t>
+  </si>
+  <si>
+    <t>Wenn der kurs mehrere H1 kpt macht gelten alle H1Kont</t>
+  </si>
+  <si>
+    <t>M3 Gaps !</t>
+  </si>
+  <si>
+    <t>H1Rmg    H1 Lvl der kmplett in einem Rng liegt gilt - ignoerieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1 (TB) am Pkt 1 anhandeln </t>
+  </si>
+  <si>
+    <t>Annäherung &lt;= 5 = Entry kpt</t>
+  </si>
+  <si>
+    <t>H1Kont &gt; 10 pkte: am Level !</t>
+  </si>
+  <si>
+    <t>M3 3er aus anhandelngelten nicht</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="d/m;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,12 +118,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +144,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +428,224 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="32.21875" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="D1" s="3">
+        <v>45919</v>
+      </c>
+      <c r="E1" s="3">
+        <v>45920</v>
+      </c>
+      <c r="F1" s="3">
+        <v>45921</v>
+      </c>
+      <c r="G1" s="3">
+        <v>45922</v>
+      </c>
+      <c r="H1" s="3">
+        <v>45923</v>
+      </c>
+      <c r="I1" s="3">
+        <v>45924</v>
+      </c>
+      <c r="J1" s="3">
+        <v>45925</v>
+      </c>
+      <c r="K1" s="3">
+        <v>45926</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3">
+        <v>45929</v>
+      </c>
+      <c r="N1" s="3">
+        <v>45930</v>
+      </c>
+      <c r="O1" s="3">
+        <v>45931</v>
+      </c>
+      <c r="P1" s="3">
+        <v>45932</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>45933</v>
+      </c>
+      <c r="R1" s="3">
+        <v>45934</v>
+      </c>
+      <c r="S1" s="3">
+        <v>45935</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>